--- a/Docs/GRUPOS GESTION DE DATOS.xlsx
+++ b/Docs/GRUPOS GESTION DE DATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UCV\UCV_GDEI-II_202201-B1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FC7E6E-FF5A-41A5-96FC-DCE384352321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E669E37E-5A5C-433B-965B-C56EDA229662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Original" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Grupo Definitivos'!$A$2:$C$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Grupo Definitivos'!$A$2:$C$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Original!$A$2:$C$41</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>Bravo Sullcapuma Jhon</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Adrian Walter Gonzales Vasquez</t>
+  </si>
+  <si>
+    <t>Paolo Israel Vega Huerta</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -366,9 +369,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,9 +408,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -431,8 +428,8 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,603 +721,615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE83132A-720E-4C2E-BEAB-DB2AF3EBA557}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="19" customWidth="1"/>
     <col min="2" max="2" width="72.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
+    <row r="3" spans="1:5" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+    <row r="4" spans="1:5" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
         <v>2</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+    <row r="5" spans="1:5" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
         <v>3</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+    <row r="6" spans="1:5" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
         <v>4</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+    <row r="7" spans="1:5" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
         <v>5</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+    <row r="8" spans="1:5" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+    <row r="9" spans="1:5" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+    <row r="10" spans="1:5" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+    <row r="11" spans="1:5" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
         <v>9</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+    <row r="12" spans="1:5" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
         <v>10</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+    <row r="13" spans="1:5" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
         <v>11</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
+    <row r="14" spans="1:5" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
         <v>12</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+    <row r="15" spans="1:5" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
         <v>13</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+    <row r="16" spans="1:5" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
         <v>14</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
+    <row r="17" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
         <v>15</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+    <row r="18" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
         <v>16</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="38">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
+    <row r="19" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
         <v>17</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="38">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+    <row r="20" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
         <v>18</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="38">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
+    <row r="21" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
         <v>19</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="38">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
+    <row r="22" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
         <v>20</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="33">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
+    <row r="23" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
         <v>21</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="33">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
+    <row r="24" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
         <v>22</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="33">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+    <row r="25" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
         <v>23</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="33">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
+    <row r="26" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
         <v>24</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="38">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
+    <row r="27" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38">
         <v>25</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="38">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40">
+    <row r="28" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
         <v>26</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="38">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40">
+    <row r="29" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38">
         <v>27</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="38">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40">
+    <row r="30" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38">
         <v>28</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="38">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
+    <row r="31" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
         <v>29</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="33">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35">
+    <row r="32" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
         <v>30</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="33">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
+    <row r="33" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
         <v>31</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="33">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40">
+    <row r="34" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
         <v>32</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38">
+        <v>33</v>
+      </c>
+      <c r="B35" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C35" s="38">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40">
-        <v>33</v>
-      </c>
-      <c r="B35" s="42" t="s">
+    <row r="36" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="38">
+        <v>34</v>
+      </c>
+      <c r="B36" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C36" s="38">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40">
-        <v>34</v>
-      </c>
-      <c r="B36" s="42" t="s">
+    <row r="37" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38">
+        <v>35</v>
+      </c>
+      <c r="B37" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="40">
+      <c r="C37" s="38">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40">
-        <v>35</v>
-      </c>
-      <c r="B37" s="42" t="s">
+    <row r="38" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C38" s="38">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35">
-        <v>36</v>
-      </c>
-      <c r="B38" s="34" t="s">
+    <row r="39" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>37</v>
+      </c>
+      <c r="B39" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C39" s="33">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35">
-        <v>37</v>
-      </c>
-      <c r="B39" s="34" t="s">
+    <row r="40" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33">
+        <v>38</v>
+      </c>
+      <c r="B40" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C40" s="33">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35">
-        <v>38</v>
-      </c>
-      <c r="B40" s="34" t="s">
+    <row r="41" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="33">
+        <v>39</v>
+      </c>
+      <c r="B41" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C41" s="33">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35">
-        <v>39</v>
-      </c>
-      <c r="B41" s="34" t="s">
+    <row r="42" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="33">
+        <v>40</v>
+      </c>
+      <c r="B42" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C42" s="33">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="35">
-        <v>40</v>
-      </c>
-      <c r="B42" s="34" t="s">
+    <row r="43" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="33">
+        <v>41</v>
+      </c>
+      <c r="B43" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C43" s="33">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40">
-        <v>41</v>
-      </c>
-      <c r="B43" s="42" t="s">
+    <row r="44" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="38">
+        <v>42</v>
+      </c>
+      <c r="B44" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C44" s="38">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40">
-        <v>42</v>
-      </c>
-      <c r="B44" s="42" t="s">
+    <row r="45" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="38">
+        <v>43</v>
+      </c>
+      <c r="B45" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="40">
+      <c r="C45" s="38">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="40">
-        <v>43</v>
-      </c>
-      <c r="B45" s="42" t="s">
+    <row r="46" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="38">
+        <v>44</v>
+      </c>
+      <c r="B46" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C46" s="38">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40">
-        <v>44</v>
-      </c>
-      <c r="B46" s="42" t="s">
+    <row r="47" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="38">
+        <v>45</v>
+      </c>
+      <c r="B47" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C47" s="38">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40">
-        <v>45</v>
-      </c>
-      <c r="B47" s="42" t="s">
+    <row r="48" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38">
+        <v>46</v>
+      </c>
+      <c r="B48" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="40">
+      <c r="C48" s="38">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="35">
-        <v>46</v>
-      </c>
-      <c r="B48" s="34" t="s">
+    <row r="49" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="33">
+        <v>47</v>
+      </c>
+      <c r="B49" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C49" s="33">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="35">
-        <v>47</v>
-      </c>
-      <c r="B49" s="34" t="s">
+    <row r="50" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="33">
+        <v>48</v>
+      </c>
+      <c r="B50" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C50" s="33">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35">
-        <v>48</v>
-      </c>
-      <c r="B50" s="34" t="s">
+    <row r="51" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="33">
+        <v>49</v>
+      </c>
+      <c r="B51" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C51" s="33">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35">
-        <v>49</v>
-      </c>
-      <c r="B51" s="34" t="s">
+    <row r="52" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="33">
+        <v>50</v>
+      </c>
+      <c r="B52" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C52" s="33">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="C52" s="36"/>
-    </row>
-    <row r="53" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="C53" s="36"/>
-    </row>
-    <row r="54" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="C54" s="36"/>
-    </row>
-    <row r="55" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="C55" s="36"/>
-    </row>
-    <row r="56" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="C56" s="36"/>
+    <row r="53" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="34"/>
+      <c r="C53" s="34"/>
+    </row>
+    <row r="54" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="34"/>
+      <c r="C54" s="34"/>
+    </row>
+    <row r="55" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="34"/>
+      <c r="C55" s="34"/>
+    </row>
+    <row r="56" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="34"/>
+      <c r="C56" s="34"/>
+    </row>
+    <row r="57" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="34"/>
+      <c r="C57" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1336,15 +1345,15 @@
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="72.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
@@ -1355,7 +1364,7 @@
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1366,7 +1375,7 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>1</v>
       </c>
     </row>
@@ -1377,7 +1386,7 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>1</v>
       </c>
     </row>
@@ -1388,7 +1397,7 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>1</v>
       </c>
     </row>
@@ -1399,7 +1408,7 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>1</v>
       </c>
     </row>
@@ -1410,7 +1419,7 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>1</v>
       </c>
     </row>
@@ -1421,7 +1430,7 @@
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>2</v>
       </c>
     </row>
@@ -1432,7 +1441,7 @@
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>2</v>
       </c>
     </row>
@@ -1443,7 +1452,7 @@
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>2</v>
       </c>
     </row>
@@ -1454,7 +1463,7 @@
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>2</v>
       </c>
     </row>
@@ -1465,7 +1474,7 @@
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>2</v>
       </c>
     </row>
@@ -1476,7 +1485,7 @@
       <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>3</v>
       </c>
     </row>
@@ -1487,7 +1496,7 @@
       <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>3</v>
       </c>
     </row>
@@ -1498,7 +1507,7 @@
       <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>3</v>
       </c>
     </row>
@@ -1509,7 +1518,7 @@
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>3</v>
       </c>
     </row>
@@ -1520,7 +1529,7 @@
       <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <v>3</v>
       </c>
     </row>
@@ -1531,7 +1540,7 @@
       <c r="B18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>4</v>
       </c>
     </row>
@@ -1542,7 +1551,7 @@
       <c r="B19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>4</v>
       </c>
     </row>
@@ -1553,7 +1562,7 @@
       <c r="B20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>4</v>
       </c>
     </row>
@@ -1561,10 +1570,10 @@
       <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>4</v>
       </c>
     </row>
@@ -1575,7 +1584,7 @@
       <c r="B22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>4</v>
       </c>
     </row>
@@ -1586,7 +1595,7 @@
       <c r="B23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>5</v>
       </c>
     </row>
@@ -1594,10 +1603,10 @@
       <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <v>5</v>
       </c>
     </row>
@@ -1608,7 +1617,7 @@
       <c r="B25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>5</v>
       </c>
     </row>
@@ -1619,7 +1628,7 @@
       <c r="B26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>5</v>
       </c>
     </row>
@@ -1630,7 +1639,7 @@
       <c r="B27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="22">
         <v>5</v>
       </c>
     </row>
@@ -1641,7 +1650,7 @@
       <c r="B28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="24">
         <v>6</v>
       </c>
     </row>
@@ -1652,7 +1661,7 @@
       <c r="B29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="24">
         <v>6</v>
       </c>
     </row>
@@ -1663,7 +1672,7 @@
       <c r="B30" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="24">
         <v>6</v>
       </c>
     </row>
@@ -1674,7 +1683,7 @@
       <c r="B31" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <v>6</v>
       </c>
     </row>
@@ -1685,7 +1694,7 @@
       <c r="B32" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="24">
         <v>6</v>
       </c>
     </row>
@@ -1696,7 +1705,7 @@
       <c r="B33" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="25">
         <v>7</v>
       </c>
     </row>
@@ -1707,7 +1716,7 @@
       <c r="B34" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="25">
         <v>7</v>
       </c>
     </row>
@@ -1718,7 +1727,7 @@
       <c r="B35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="25">
         <v>7</v>
       </c>
     </row>
@@ -1726,65 +1735,65 @@
       <c r="A36" s="16">
         <v>34</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="25">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
+      <c r="A37" s="29">
         <v>35</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="30">
+      <c r="A38" s="29">
         <v>36</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="30">
+      <c r="A39" s="29">
         <v>37</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="30">
+      <c r="A40" s="29">
         <v>38</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
+      <c r="A41" s="29">
         <v>39</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="30">
         <v>8</v>
       </c>
     </row>

--- a/Docs/GRUPOS GESTION DE DATOS.xlsx
+++ b/Docs/GRUPOS GESTION DE DATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UCV\UCV_GDEI-II_202201-B1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E669E37E-5A5C-433B-965B-C56EDA229662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AFABE3-93D2-4C26-A70A-9634D99E6871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE83132A-720E-4C2E-BEAB-DB2AF3EBA557}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,21 +1243,21 @@
         <v>45</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C47" s="38">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38">
+      <c r="A48" s="33">
         <v>46</v>
       </c>
-      <c r="B48" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="38">
-        <v>10</v>
+      <c r="B48" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="33">
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C49" s="33">
         <v>11</v>
@@ -1276,7 +1276,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C50" s="33">
         <v>11</v>
@@ -1287,7 +1287,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C51" s="33">
         <v>11</v>
@@ -1298,7 +1298,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C52" s="33">
         <v>11</v>
@@ -1315,14 +1315,6 @@
     <row r="55" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="34"/>
       <c r="C55" s="34"/>
-    </row>
-    <row r="56" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="C56" s="34"/>
-    </row>
-    <row r="57" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="C57" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Docs/GRUPOS GESTION DE DATOS.xlsx
+++ b/Docs/GRUPOS GESTION DE DATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UCV\UCV_GDEI-II_202201-B1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AFABE3-93D2-4C26-A70A-9634D99E6871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92177127-1A8D-4FD1-B2D0-62020E23ED4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,14 +723,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE83132A-720E-4C2E-BEAB-DB2AF3EBA557}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="72.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
